--- a/key_gene_mutation.xlsx
+++ b/key_gene_mutation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="532">
   <si>
     <t>sample</t>
   </si>
@@ -2548,10 +2548,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:ST20"/>
+  <dimension ref="A1:ST19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17998,7 +17998,7 @@
     </row>
     <row r="11" spans="1:514">
       <c r="A11" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -18037,7 +18037,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -18055,7 +18055,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -18154,7 +18154,7 @@
         <v>0</v>
       </c>
       <c r="BA11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB11">
         <v>0</v>
@@ -18256,7 +18256,7 @@
         <v>0</v>
       </c>
       <c r="CI11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ11">
         <v>0</v>
@@ -18283,7 +18283,7 @@
         <v>0</v>
       </c>
       <c r="CR11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS11">
         <v>0</v>
@@ -18337,10 +18337,10 @@
         <v>0</v>
       </c>
       <c r="DJ11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DL11">
         <v>0</v>
@@ -18358,7 +18358,7 @@
         <v>0</v>
       </c>
       <c r="DQ11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR11">
         <v>0</v>
@@ -18406,7 +18406,7 @@
         <v>0</v>
       </c>
       <c r="EG11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EH11">
         <v>0</v>
@@ -18415,7 +18415,7 @@
         <v>0</v>
       </c>
       <c r="EJ11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK11">
         <v>0</v>
@@ -18457,7 +18457,7 @@
         <v>0</v>
       </c>
       <c r="EX11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY11">
         <v>0</v>
@@ -18508,7 +18508,7 @@
         <v>0</v>
       </c>
       <c r="FO11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FP11">
         <v>0</v>
@@ -18529,7 +18529,7 @@
         <v>0</v>
       </c>
       <c r="FV11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FW11">
         <v>0</v>
@@ -18541,7 +18541,7 @@
         <v>0</v>
       </c>
       <c r="FZ11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GA11">
         <v>0</v>
@@ -18697,7 +18697,7 @@
         <v>0</v>
       </c>
       <c r="HZ11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IA11">
         <v>0</v>
@@ -18832,7 +18832,7 @@
         <v>0</v>
       </c>
       <c r="JS11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JT11">
         <v>0</v>
@@ -18946,7 +18946,7 @@
         <v>0</v>
       </c>
       <c r="LE11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LF11">
         <v>0</v>
@@ -18964,7 +18964,7 @@
         <v>0</v>
       </c>
       <c r="LK11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LL11">
         <v>0</v>
@@ -19162,7 +19162,7 @@
         <v>0</v>
       </c>
       <c r="NY11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NZ11">
         <v>0</v>
@@ -19252,7 +19252,7 @@
         <v>0</v>
       </c>
       <c r="PC11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PD11">
         <v>0</v>
@@ -19342,7 +19342,7 @@
         <v>0</v>
       </c>
       <c r="QG11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="QH11">
         <v>0</v>
@@ -19408,7 +19408,7 @@
         <v>0</v>
       </c>
       <c r="RC11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="RD11">
         <v>0</v>
@@ -19528,7 +19528,7 @@
         <v>0</v>
       </c>
       <c r="SQ11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SR11">
         <v>0</v>
@@ -19542,7 +19542,7 @@
     </row>
     <row r="12" spans="1:514">
       <c r="A12" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -19557,7 +19557,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -19599,7 +19599,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -19869,7 +19869,7 @@
         <v>0</v>
       </c>
       <c r="DF12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG12">
         <v>0</v>
@@ -20040,7 +20040,7 @@
         <v>0</v>
       </c>
       <c r="FK12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL12">
         <v>0</v>
@@ -20190,7 +20190,7 @@
         <v>0</v>
       </c>
       <c r="HI12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HJ12">
         <v>0</v>
@@ -20463,7 +20463,7 @@
         <v>0</v>
       </c>
       <c r="KV12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KW12">
         <v>0</v>
@@ -20472,7 +20472,7 @@
         <v>0</v>
       </c>
       <c r="KY12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KZ12">
         <v>0</v>
@@ -20736,7 +20736,7 @@
         <v>0</v>
       </c>
       <c r="OI12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OJ12">
         <v>0</v>
@@ -20952,7 +20952,7 @@
         <v>0</v>
       </c>
       <c r="RC12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="RD12">
         <v>0</v>
@@ -21072,7 +21072,7 @@
         <v>0</v>
       </c>
       <c r="SQ12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SR12">
         <v>0</v>
@@ -21086,7 +21086,7 @@
     </row>
     <row r="13" spans="1:514">
       <c r="A13" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -21101,7 +21101,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -21197,7 +21197,7 @@
         <v>0</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM13">
         <v>0</v>
@@ -21224,7 +21224,7 @@
         <v>0</v>
       </c>
       <c r="AU13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV13">
         <v>0</v>
@@ -21413,7 +21413,7 @@
         <v>0</v>
       </c>
       <c r="DF13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG13">
         <v>0</v>
@@ -21446,7 +21446,7 @@
         <v>0</v>
       </c>
       <c r="DQ13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR13">
         <v>0</v>
@@ -21584,7 +21584,7 @@
         <v>0</v>
       </c>
       <c r="FK13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL13">
         <v>0</v>
@@ -21734,7 +21734,7 @@
         <v>0</v>
       </c>
       <c r="HI13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HJ13">
         <v>0</v>
@@ -21974,7 +21974,7 @@
         <v>0</v>
       </c>
       <c r="KK13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KL13">
         <v>0</v>
@@ -22007,7 +22007,7 @@
         <v>0</v>
       </c>
       <c r="KV13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KW13">
         <v>0</v>
@@ -22016,7 +22016,7 @@
         <v>0</v>
       </c>
       <c r="KY13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KZ13">
         <v>0</v>
@@ -22280,7 +22280,7 @@
         <v>0</v>
       </c>
       <c r="OI13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OJ13">
         <v>0</v>
@@ -22496,7 +22496,7 @@
         <v>0</v>
       </c>
       <c r="RC13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="RD13">
         <v>0</v>
@@ -22630,7 +22630,7 @@
     </row>
     <row r="14" spans="1:514">
       <c r="A14" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -22741,10 +22741,10 @@
         <v>0</v>
       </c>
       <c r="AL14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN14">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="AU14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV14">
         <v>0</v>
@@ -22822,7 +22822,7 @@
         <v>0</v>
       </c>
       <c r="BM14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN14">
         <v>0</v>
@@ -23020,7 +23020,7 @@
         <v>0</v>
       </c>
       <c r="EA14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EB14">
         <v>0</v>
@@ -23053,7 +23053,7 @@
         <v>0</v>
       </c>
       <c r="EL14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM14">
         <v>0</v>
@@ -23239,7 +23239,7 @@
         <v>0</v>
       </c>
       <c r="GV14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GW14">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="HC14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HD14">
         <v>0</v>
@@ -23287,7 +23287,7 @@
         <v>0</v>
       </c>
       <c r="HL14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HM14">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="HS14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HT14">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         <v>0</v>
       </c>
       <c r="JB14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JC14">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="JS14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JT14">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         <v>0</v>
       </c>
       <c r="ND14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NE14">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="PV14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PW14">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         <v>0</v>
       </c>
       <c r="QE14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="QF14">
         <v>0</v>
@@ -24151,7 +24151,7 @@
         <v>0</v>
       </c>
       <c r="SN14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SO14">
         <v>0</v>
@@ -24174,7 +24174,7 @@
     </row>
     <row r="15" spans="1:514">
       <c r="A15" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -24207,7 +24207,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -24219,7 +24219,7 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -24237,7 +24237,7 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -24246,13 +24246,13 @@
         <v>0</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15">
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15">
         <v>0</v>
@@ -24267,7 +24267,7 @@
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15">
         <v>0</v>
@@ -24285,10 +24285,10 @@
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN15">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="BM15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP15">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="BR15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS15">
         <v>0</v>
@@ -24444,7 +24444,7 @@
         <v>0</v>
       </c>
       <c r="CM15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN15">
         <v>0</v>
@@ -24516,7 +24516,7 @@
         <v>0</v>
       </c>
       <c r="DK15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL15">
         <v>0</v>
@@ -24528,7 +24528,7 @@
         <v>0</v>
       </c>
       <c r="DO15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP15">
         <v>0</v>
@@ -24540,13 +24540,13 @@
         <v>0</v>
       </c>
       <c r="DS15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT15">
         <v>0</v>
       </c>
       <c r="DU15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DV15">
         <v>0</v>
@@ -24564,7 +24564,7 @@
         <v>0</v>
       </c>
       <c r="EA15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EB15">
         <v>0</v>
@@ -24585,7 +24585,7 @@
         <v>0</v>
       </c>
       <c r="EH15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI15">
         <v>0</v>
@@ -24594,10 +24594,10 @@
         <v>0</v>
       </c>
       <c r="EK15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM15">
         <v>0</v>
@@ -24783,7 +24783,7 @@
         <v>0</v>
       </c>
       <c r="GV15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GW15">
         <v>0</v>
@@ -24804,13 +24804,13 @@
         <v>0</v>
       </c>
       <c r="HC15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HD15">
         <v>0</v>
       </c>
       <c r="HE15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HF15">
         <v>0</v>
@@ -24822,16 +24822,16 @@
         <v>0</v>
       </c>
       <c r="HI15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HJ15">
         <v>0</v>
       </c>
       <c r="HK15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HL15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HM15">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="HS15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HT15">
         <v>0</v>
@@ -24861,7 +24861,7 @@
         <v>0</v>
       </c>
       <c r="HV15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW15">
         <v>0</v>
@@ -24912,7 +24912,7 @@
         <v>0</v>
       </c>
       <c r="IM15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IN15">
         <v>0</v>
@@ -24957,7 +24957,7 @@
         <v>0</v>
       </c>
       <c r="JB15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC15">
         <v>0</v>
@@ -25008,7 +25008,7 @@
         <v>0</v>
       </c>
       <c r="JS15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JT15">
         <v>0</v>
@@ -25059,10 +25059,10 @@
         <v>0</v>
       </c>
       <c r="KJ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KK15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KL15">
         <v>0</v>
@@ -25098,7 +25098,7 @@
         <v>0</v>
       </c>
       <c r="KW15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KX15">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="LD15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LE15">
         <v>0</v>
@@ -25176,7 +25176,7 @@
         <v>0</v>
       </c>
       <c r="LW15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LX15">
         <v>0</v>
@@ -25275,7 +25275,7 @@
         <v>0</v>
       </c>
       <c r="ND15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NE15">
         <v>0</v>
@@ -25446,7 +25446,7 @@
         <v>0</v>
       </c>
       <c r="PI15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PJ15">
         <v>0</v>
@@ -25476,7 +25476,7 @@
         <v>0</v>
       </c>
       <c r="PS15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PT15">
         <v>0</v>
@@ -25485,7 +25485,7 @@
         <v>0</v>
       </c>
       <c r="PV15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PW15">
         <v>0</v>
@@ -25494,7 +25494,7 @@
         <v>0</v>
       </c>
       <c r="PY15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PZ15">
         <v>0</v>
@@ -25512,7 +25512,7 @@
         <v>0</v>
       </c>
       <c r="QE15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="QF15">
         <v>0</v>
@@ -25695,7 +25695,7 @@
         <v>0</v>
       </c>
       <c r="SN15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SO15">
         <v>0</v>
@@ -25718,7 +25718,7 @@
     </row>
     <row r="16" spans="1:514">
       <c r="A16" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -25790,13 +25790,13 @@
         <v>0</v>
       </c>
       <c r="Y16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16">
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -25811,7 +25811,7 @@
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16">
         <v>0</v>
@@ -25829,7 +25829,7 @@
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16">
         <v>0</v>
@@ -25901,7 +25901,7 @@
         <v>0</v>
       </c>
       <c r="BJ16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK16">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="BN16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP16">
         <v>0</v>
@@ -25925,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="BR16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS16">
         <v>0</v>
@@ -25955,7 +25955,7 @@
         <v>0</v>
       </c>
       <c r="CB16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC16">
         <v>0</v>
@@ -25988,7 +25988,7 @@
         <v>0</v>
       </c>
       <c r="CM16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN16">
         <v>0</v>
@@ -26051,7 +26051,7 @@
         <v>0</v>
       </c>
       <c r="DH16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI16">
         <v>0</v>
@@ -26060,7 +26060,7 @@
         <v>0</v>
       </c>
       <c r="DK16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DL16">
         <v>0</v>
@@ -26072,7 +26072,7 @@
         <v>0</v>
       </c>
       <c r="DO16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP16">
         <v>0</v>
@@ -26090,7 +26090,7 @@
         <v>0</v>
       </c>
       <c r="DU16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV16">
         <v>0</v>
@@ -26129,7 +26129,7 @@
         <v>0</v>
       </c>
       <c r="EH16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EI16">
         <v>0</v>
@@ -26138,7 +26138,7 @@
         <v>0</v>
       </c>
       <c r="EK16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EL16">
         <v>0</v>
@@ -26285,7 +26285,7 @@
         <v>0</v>
       </c>
       <c r="GH16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GI16">
         <v>0</v>
@@ -26354,7 +26354,7 @@
         <v>0</v>
       </c>
       <c r="HE16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HF16">
         <v>0</v>
@@ -26366,13 +26366,13 @@
         <v>0</v>
       </c>
       <c r="HI16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HJ16">
         <v>0</v>
       </c>
       <c r="HK16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HL16">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="HV16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW16">
         <v>0</v>
@@ -26456,7 +26456,7 @@
         <v>0</v>
       </c>
       <c r="IM16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IN16">
         <v>0</v>
@@ -26558,7 +26558,7 @@
         <v>0</v>
       </c>
       <c r="JU16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JV16">
         <v>0</v>
@@ -26633,7 +26633,7 @@
         <v>0</v>
       </c>
       <c r="KT16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KU16">
         <v>0</v>
@@ -26642,7 +26642,7 @@
         <v>0</v>
       </c>
       <c r="KW16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KX16">
         <v>0</v>
@@ -26720,7 +26720,7 @@
         <v>0</v>
       </c>
       <c r="LW16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LX16">
         <v>0</v>
@@ -26945,7 +26945,7 @@
         <v>0</v>
       </c>
       <c r="OT16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OU16">
         <v>0</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="PI16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PJ16">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="PS16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PT16">
         <v>0</v>
@@ -27038,7 +27038,7 @@
         <v>0</v>
       </c>
       <c r="PY16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PZ16">
         <v>0</v>
@@ -27262,7 +27262,7 @@
     </row>
     <row r="17" spans="1:514">
       <c r="A17" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -27283,7 +27283,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -27295,7 +27295,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -27337,7 +27337,7 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA17">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="BJ17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK17">
         <v>0</v>
@@ -27499,7 +27499,7 @@
         <v>0</v>
       </c>
       <c r="CB17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC17">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="CE17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF17">
         <v>0</v>
@@ -27595,7 +27595,7 @@
         <v>0</v>
       </c>
       <c r="DH17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI17">
         <v>0</v>
@@ -27748,7 +27748,7 @@
         <v>0</v>
       </c>
       <c r="FG17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FH17">
         <v>0</v>
@@ -27829,7 +27829,7 @@
         <v>0</v>
       </c>
       <c r="GH17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GI17">
         <v>0</v>
@@ -27847,7 +27847,7 @@
         <v>0</v>
       </c>
       <c r="GN17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GO17">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="JU17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JV17">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="KJ17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KK17">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="KM17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KN17">
         <v>0</v>
@@ -28177,7 +28177,7 @@
         <v>0</v>
       </c>
       <c r="KT17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KU17">
         <v>0</v>
@@ -28189,7 +28189,7 @@
         <v>0</v>
       </c>
       <c r="KX17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KY17">
         <v>0</v>
@@ -28207,7 +28207,7 @@
         <v>0</v>
       </c>
       <c r="LD17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LE17">
         <v>0</v>
@@ -28255,7 +28255,7 @@
         <v>0</v>
       </c>
       <c r="LT17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LU17">
         <v>0</v>
@@ -28285,7 +28285,7 @@
         <v>0</v>
       </c>
       <c r="MD17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ME17">
         <v>0</v>
@@ -28351,7 +28351,7 @@
         <v>0</v>
       </c>
       <c r="MZ17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NA17">
         <v>0</v>
@@ -28438,7 +28438,7 @@
         <v>0</v>
       </c>
       <c r="OC17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OD17">
         <v>0</v>
@@ -28468,7 +28468,7 @@
         <v>0</v>
       </c>
       <c r="OM17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ON17">
         <v>0</v>
@@ -28489,7 +28489,7 @@
         <v>0</v>
       </c>
       <c r="OT17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OU17">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="PV17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PW17">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="PY17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PZ17">
         <v>0</v>
@@ -28708,7 +28708,7 @@
         <v>0</v>
       </c>
       <c r="RO17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="RP17">
         <v>0</v>
@@ -28726,7 +28726,7 @@
         <v>0</v>
       </c>
       <c r="RU17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="RV17">
         <v>0</v>
@@ -28741,7 +28741,7 @@
         <v>0</v>
       </c>
       <c r="RZ17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SA17">
         <v>0</v>
@@ -28806,7 +28806,7 @@
     </row>
     <row r="18" spans="1:514">
       <c r="A18" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -28827,10 +28827,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -28869,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -28881,7 +28881,7 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA18">
         <v>0</v>
@@ -28899,7 +28899,7 @@
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG18">
         <v>0</v>
@@ -28923,7 +28923,7 @@
         <v>0</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -28944,7 +28944,7 @@
         <v>0</v>
       </c>
       <c r="AU18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV18">
         <v>0</v>
@@ -28992,13 +28992,13 @@
         <v>0</v>
       </c>
       <c r="BK18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL18">
         <v>0</v>
       </c>
       <c r="BM18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN18">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="CE18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF18">
         <v>0</v>
@@ -29061,7 +29061,7 @@
         <v>0</v>
       </c>
       <c r="CH18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI18">
         <v>0</v>
@@ -29076,10 +29076,10 @@
         <v>0</v>
       </c>
       <c r="CM18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO18">
         <v>0</v>
@@ -29094,7 +29094,7 @@
         <v>0</v>
       </c>
       <c r="CS18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT18">
         <v>0</v>
@@ -29133,7 +29133,7 @@
         <v>0</v>
       </c>
       <c r="DF18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG18">
         <v>0</v>
@@ -29172,7 +29172,7 @@
         <v>0</v>
       </c>
       <c r="DS18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT18">
         <v>0</v>
@@ -29181,13 +29181,13 @@
         <v>0</v>
       </c>
       <c r="DV18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW18">
         <v>0</v>
       </c>
       <c r="DX18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY18">
         <v>0</v>
@@ -29214,7 +29214,7 @@
         <v>0</v>
       </c>
       <c r="EG18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH18">
         <v>0</v>
@@ -29286,22 +29286,22 @@
         <v>0</v>
       </c>
       <c r="FE18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FF18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG18">
         <v>1</v>
       </c>
       <c r="FH18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI18">
         <v>0</v>
       </c>
       <c r="FJ18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FK18">
         <v>0</v>
@@ -29388,10 +29388,10 @@
         <v>0</v>
       </c>
       <c r="GM18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GN18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GO18">
         <v>0</v>
@@ -29421,7 +29421,7 @@
         <v>0</v>
       </c>
       <c r="GX18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GY18">
         <v>0</v>
@@ -29451,10 +29451,10 @@
         <v>0</v>
       </c>
       <c r="HH18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HI18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HJ18">
         <v>0</v>
@@ -29586,7 +29586,7 @@
         <v>0</v>
       </c>
       <c r="JA18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JB18">
         <v>0</v>
@@ -29619,7 +29619,7 @@
         <v>0</v>
       </c>
       <c r="JL18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JM18">
         <v>0</v>
@@ -29631,7 +29631,7 @@
         <v>0</v>
       </c>
       <c r="JP18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JQ18">
         <v>0</v>
@@ -29682,7 +29682,7 @@
         <v>0</v>
       </c>
       <c r="KG18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KH18">
         <v>0</v>
@@ -29700,7 +29700,7 @@
         <v>0</v>
       </c>
       <c r="KM18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KN18">
         <v>0</v>
@@ -29751,13 +29751,13 @@
         <v>0</v>
       </c>
       <c r="LD18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LE18">
         <v>0</v>
       </c>
       <c r="LF18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LG18">
         <v>0</v>
@@ -29799,13 +29799,13 @@
         <v>0</v>
       </c>
       <c r="LT18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LU18">
         <v>0</v>
       </c>
       <c r="LV18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LW18">
         <v>0</v>
@@ -29826,16 +29826,16 @@
         <v>0</v>
       </c>
       <c r="MC18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MD18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ME18">
         <v>0</v>
       </c>
       <c r="MF18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MG18">
         <v>0</v>
@@ -29877,7 +29877,7 @@
         <v>0</v>
       </c>
       <c r="MT18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MU18">
         <v>0</v>
@@ -29895,7 +29895,7 @@
         <v>0</v>
       </c>
       <c r="MZ18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NA18">
         <v>0</v>
@@ -29913,13 +29913,13 @@
         <v>0</v>
       </c>
       <c r="NF18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NG18">
         <v>0</v>
       </c>
       <c r="NH18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NI18">
         <v>0</v>
@@ -29982,7 +29982,7 @@
         <v>0</v>
       </c>
       <c r="OC18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OD18">
         <v>0</v>
@@ -29994,7 +29994,7 @@
         <v>0</v>
       </c>
       <c r="OG18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OH18">
         <v>0</v>
@@ -30009,7 +30009,7 @@
         <v>0</v>
       </c>
       <c r="OL18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OM18">
         <v>1</v>
@@ -30081,7 +30081,7 @@
         <v>0</v>
       </c>
       <c r="PJ18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PK18">
         <v>0</v>
@@ -30117,7 +30117,7 @@
         <v>0</v>
       </c>
       <c r="PV18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PW18">
         <v>0</v>
@@ -30126,7 +30126,7 @@
         <v>0</v>
       </c>
       <c r="PY18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PZ18">
         <v>0</v>
@@ -30141,7 +30141,7 @@
         <v>0</v>
       </c>
       <c r="QD18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="QE18">
         <v>0</v>
@@ -30252,7 +30252,7 @@
         <v>0</v>
       </c>
       <c r="RO18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="RP18">
         <v>0</v>
@@ -30270,7 +30270,7 @@
         <v>0</v>
       </c>
       <c r="RU18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="RV18">
         <v>0</v>
@@ -30285,7 +30285,7 @@
         <v>0</v>
       </c>
       <c r="RZ18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SA18">
         <v>0</v>
@@ -30297,7 +30297,7 @@
         <v>0</v>
       </c>
       <c r="SD18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SE18">
         <v>0</v>
@@ -30350,3601 +30350,2057 @@
     </row>
     <row r="19" spans="1:514">
       <c r="A19" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <f>SUM(B2:B18)</f>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <f t="shared" ref="C19:BN19" si="0">SUM(C2:C18)</f>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>1</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <v>0</v>
-      </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
-      <c r="AM19">
-        <v>0</v>
-      </c>
-      <c r="AN19">
-        <v>1</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>0</v>
-      </c>
-      <c r="AS19">
-        <v>0</v>
-      </c>
-      <c r="AT19">
-        <v>0</v>
-      </c>
-      <c r="AU19">
-        <v>1</v>
-      </c>
-      <c r="AV19">
-        <v>0</v>
-      </c>
-      <c r="AW19">
-        <v>0</v>
-      </c>
-      <c r="AX19">
-        <v>0</v>
-      </c>
-      <c r="AY19">
-        <v>0</v>
-      </c>
-      <c r="AZ19">
-        <v>0</v>
-      </c>
-      <c r="BA19">
-        <v>0</v>
-      </c>
-      <c r="BB19">
-        <v>0</v>
-      </c>
-      <c r="BC19">
-        <v>0</v>
-      </c>
-      <c r="BD19">
-        <v>0</v>
-      </c>
-      <c r="BE19">
-        <v>0</v>
-      </c>
-      <c r="BF19">
-        <v>0</v>
-      </c>
-      <c r="BG19">
-        <v>0</v>
-      </c>
-      <c r="BH19">
-        <v>0</v>
-      </c>
-      <c r="BI19">
-        <v>0</v>
-      </c>
-      <c r="BJ19">
-        <v>0</v>
-      </c>
-      <c r="BK19">
-        <v>1</v>
-      </c>
-      <c r="BL19">
-        <v>0</v>
-      </c>
-      <c r="BM19">
-        <v>1</v>
-      </c>
-      <c r="BN19">
-        <v>0</v>
-      </c>
-      <c r="BO19">
-        <v>0</v>
-      </c>
-      <c r="BP19">
-        <v>0</v>
-      </c>
-      <c r="BQ19">
-        <v>0</v>
-      </c>
-      <c r="BR19">
-        <v>0</v>
-      </c>
-      <c r="BS19">
-        <v>0</v>
-      </c>
-      <c r="BT19">
-        <v>0</v>
-      </c>
-      <c r="BU19">
-        <v>0</v>
-      </c>
-      <c r="BV19">
-        <v>0</v>
-      </c>
-      <c r="BW19">
-        <v>0</v>
-      </c>
-      <c r="BX19">
-        <v>0</v>
-      </c>
-      <c r="BY19">
-        <v>0</v>
-      </c>
-      <c r="BZ19">
-        <v>0</v>
-      </c>
-      <c r="CA19">
-        <v>0</v>
-      </c>
-      <c r="CB19">
-        <v>0</v>
-      </c>
-      <c r="CC19">
-        <v>0</v>
-      </c>
-      <c r="CD19">
-        <v>0</v>
-      </c>
-      <c r="CE19">
-        <v>0</v>
-      </c>
-      <c r="CF19">
-        <v>0</v>
-      </c>
-      <c r="CG19">
-        <v>0</v>
-      </c>
-      <c r="CH19">
-        <v>1</v>
-      </c>
-      <c r="CI19">
-        <v>0</v>
-      </c>
-      <c r="CJ19">
-        <v>0</v>
-      </c>
-      <c r="CK19">
-        <v>0</v>
-      </c>
-      <c r="CL19">
-        <v>0</v>
-      </c>
-      <c r="CM19">
-        <v>1</v>
-      </c>
-      <c r="CN19">
-        <v>1</v>
-      </c>
-      <c r="CO19">
-        <v>0</v>
-      </c>
-      <c r="CP19">
-        <v>0</v>
-      </c>
-      <c r="CQ19">
-        <v>0</v>
-      </c>
-      <c r="CR19">
-        <v>0</v>
-      </c>
-      <c r="CS19">
-        <v>1</v>
-      </c>
-      <c r="CT19">
-        <v>0</v>
-      </c>
-      <c r="CU19">
-        <v>0</v>
-      </c>
-      <c r="CV19">
-        <v>0</v>
-      </c>
-      <c r="CW19">
-        <v>0</v>
-      </c>
-      <c r="CX19">
-        <v>0</v>
-      </c>
-      <c r="CY19">
-        <v>0</v>
-      </c>
-      <c r="CZ19">
-        <v>0</v>
-      </c>
-      <c r="DA19">
-        <v>0</v>
-      </c>
-      <c r="DB19">
-        <v>0</v>
-      </c>
-      <c r="DC19">
-        <v>0</v>
-      </c>
-      <c r="DD19">
-        <v>0</v>
-      </c>
-      <c r="DE19">
-        <v>0</v>
-      </c>
-      <c r="DF19">
-        <v>1</v>
-      </c>
-      <c r="DG19">
-        <v>0</v>
-      </c>
-      <c r="DH19">
-        <v>0</v>
-      </c>
-      <c r="DI19">
-        <v>0</v>
-      </c>
-      <c r="DJ19">
-        <v>0</v>
-      </c>
-      <c r="DK19">
-        <v>0</v>
-      </c>
-      <c r="DL19">
-        <v>0</v>
-      </c>
-      <c r="DM19">
-        <v>0</v>
-      </c>
-      <c r="DN19">
-        <v>0</v>
-      </c>
-      <c r="DO19">
-        <v>0</v>
-      </c>
-      <c r="DP19">
-        <v>0</v>
-      </c>
-      <c r="DQ19">
-        <v>0</v>
-      </c>
-      <c r="DR19">
-        <v>0</v>
-      </c>
-      <c r="DS19">
-        <v>0</v>
-      </c>
-      <c r="DT19">
-        <v>0</v>
-      </c>
-      <c r="DU19">
-        <v>0</v>
-      </c>
-      <c r="DV19">
-        <v>1</v>
-      </c>
-      <c r="DW19">
-        <v>0</v>
-      </c>
-      <c r="DX19">
-        <v>1</v>
-      </c>
-      <c r="DY19">
-        <v>0</v>
-      </c>
-      <c r="DZ19">
-        <v>0</v>
-      </c>
-      <c r="EA19">
-        <v>0</v>
-      </c>
-      <c r="EB19">
-        <v>0</v>
-      </c>
-      <c r="EC19">
-        <v>0</v>
-      </c>
-      <c r="ED19">
-        <v>0</v>
-      </c>
-      <c r="EE19">
-        <v>0</v>
-      </c>
-      <c r="EF19">
-        <v>0</v>
-      </c>
-      <c r="EG19">
-        <v>1</v>
-      </c>
-      <c r="EH19">
-        <v>0</v>
-      </c>
-      <c r="EI19">
-        <v>0</v>
-      </c>
-      <c r="EJ19">
-        <v>0</v>
-      </c>
-      <c r="EK19">
-        <v>0</v>
-      </c>
-      <c r="EL19">
-        <v>0</v>
-      </c>
-      <c r="EM19">
-        <v>0</v>
-      </c>
-      <c r="EN19">
-        <v>0</v>
-      </c>
-      <c r="EO19">
-        <v>0</v>
-      </c>
-      <c r="EP19">
-        <v>0</v>
-      </c>
-      <c r="EQ19">
-        <v>0</v>
-      </c>
-      <c r="ER19">
-        <v>0</v>
-      </c>
-      <c r="ES19">
-        <v>0</v>
-      </c>
-      <c r="ET19">
-        <v>0</v>
-      </c>
-      <c r="EU19">
-        <v>0</v>
-      </c>
-      <c r="EV19">
-        <v>0</v>
-      </c>
-      <c r="EW19">
-        <v>0</v>
-      </c>
-      <c r="EX19">
-        <v>0</v>
-      </c>
-      <c r="EY19">
-        <v>0</v>
-      </c>
-      <c r="EZ19">
-        <v>0</v>
-      </c>
-      <c r="FA19">
-        <v>0</v>
-      </c>
-      <c r="FB19">
-        <v>0</v>
-      </c>
-      <c r="FC19">
-        <v>0</v>
-      </c>
-      <c r="FD19">
-        <v>0</v>
-      </c>
-      <c r="FE19">
-        <v>1</v>
-      </c>
-      <c r="FF19">
-        <v>1</v>
-      </c>
-      <c r="FG19">
-        <v>1</v>
-      </c>
-      <c r="FH19">
-        <v>1</v>
-      </c>
-      <c r="FI19">
-        <v>0</v>
-      </c>
-      <c r="FJ19">
-        <v>1</v>
-      </c>
-      <c r="FK19">
-        <v>0</v>
-      </c>
-      <c r="FL19">
-        <v>0</v>
-      </c>
-      <c r="FM19">
-        <v>0</v>
-      </c>
-      <c r="FN19">
-        <v>0</v>
-      </c>
-      <c r="FO19">
-        <v>0</v>
-      </c>
-      <c r="FP19">
-        <v>0</v>
-      </c>
-      <c r="FQ19">
-        <v>0</v>
-      </c>
-      <c r="FR19">
-        <v>0</v>
-      </c>
-      <c r="FS19">
-        <v>0</v>
-      </c>
-      <c r="FT19">
-        <v>0</v>
-      </c>
-      <c r="FU19">
-        <v>0</v>
-      </c>
-      <c r="FV19">
-        <v>0</v>
-      </c>
-      <c r="FW19">
-        <v>0</v>
-      </c>
-      <c r="FX19">
-        <v>0</v>
-      </c>
-      <c r="FY19">
-        <v>0</v>
-      </c>
-      <c r="FZ19">
-        <v>0</v>
-      </c>
-      <c r="GA19">
-        <v>0</v>
-      </c>
-      <c r="GB19">
-        <v>0</v>
-      </c>
-      <c r="GC19">
-        <v>0</v>
-      </c>
-      <c r="GD19">
-        <v>0</v>
-      </c>
-      <c r="GE19">
-        <v>0</v>
-      </c>
-      <c r="GF19">
-        <v>0</v>
-      </c>
-      <c r="GG19">
-        <v>0</v>
-      </c>
-      <c r="GH19">
-        <v>0</v>
-      </c>
-      <c r="GI19">
-        <v>0</v>
-      </c>
-      <c r="GJ19">
-        <v>0</v>
-      </c>
-      <c r="GK19">
-        <v>0</v>
-      </c>
-      <c r="GL19">
-        <v>0</v>
-      </c>
-      <c r="GM19">
-        <v>1</v>
-      </c>
-      <c r="GN19">
-        <v>0</v>
-      </c>
-      <c r="GO19">
-        <v>0</v>
-      </c>
-      <c r="GP19">
-        <v>0</v>
-      </c>
-      <c r="GQ19">
-        <v>0</v>
-      </c>
-      <c r="GR19">
-        <v>0</v>
-      </c>
-      <c r="GS19">
-        <v>0</v>
-      </c>
-      <c r="GT19">
-        <v>0</v>
-      </c>
-      <c r="GU19">
-        <v>0</v>
-      </c>
-      <c r="GV19">
-        <v>0</v>
-      </c>
-      <c r="GW19">
-        <v>0</v>
-      </c>
-      <c r="GX19">
-        <v>1</v>
-      </c>
-      <c r="GY19">
-        <v>0</v>
-      </c>
-      <c r="GZ19">
-        <v>0</v>
-      </c>
-      <c r="HA19">
-        <v>0</v>
-      </c>
-      <c r="HB19">
-        <v>0</v>
-      </c>
-      <c r="HC19">
-        <v>0</v>
-      </c>
-      <c r="HD19">
-        <v>0</v>
-      </c>
-      <c r="HE19">
-        <v>0</v>
-      </c>
-      <c r="HF19">
-        <v>0</v>
-      </c>
-      <c r="HG19">
-        <v>0</v>
-      </c>
-      <c r="HH19">
-        <v>1</v>
-      </c>
-      <c r="HI19">
-        <v>1</v>
-      </c>
-      <c r="HJ19">
-        <v>0</v>
-      </c>
-      <c r="HK19">
-        <v>0</v>
-      </c>
-      <c r="HL19">
-        <v>0</v>
-      </c>
-      <c r="HM19">
-        <v>0</v>
-      </c>
-      <c r="HN19">
-        <v>0</v>
-      </c>
-      <c r="HO19">
-        <v>0</v>
-      </c>
-      <c r="HP19">
-        <v>0</v>
-      </c>
-      <c r="HQ19">
-        <v>0</v>
-      </c>
-      <c r="HR19">
-        <v>0</v>
-      </c>
-      <c r="HS19">
-        <v>0</v>
-      </c>
-      <c r="HT19">
-        <v>0</v>
-      </c>
-      <c r="HU19">
-        <v>0</v>
-      </c>
-      <c r="HV19">
-        <v>0</v>
-      </c>
-      <c r="HW19">
-        <v>0</v>
-      </c>
-      <c r="HX19">
-        <v>0</v>
-      </c>
-      <c r="HY19">
-        <v>0</v>
-      </c>
-      <c r="HZ19">
-        <v>0</v>
-      </c>
-      <c r="IA19">
-        <v>0</v>
-      </c>
-      <c r="IB19">
-        <v>0</v>
-      </c>
-      <c r="IC19">
-        <v>0</v>
-      </c>
-      <c r="ID19">
-        <v>0</v>
-      </c>
-      <c r="IE19">
-        <v>0</v>
-      </c>
-      <c r="IF19">
-        <v>0</v>
-      </c>
-      <c r="IG19">
-        <v>0</v>
-      </c>
-      <c r="IH19">
-        <v>0</v>
-      </c>
-      <c r="II19">
-        <v>0</v>
-      </c>
-      <c r="IJ19">
-        <v>0</v>
-      </c>
-      <c r="IK19">
-        <v>0</v>
-      </c>
-      <c r="IL19">
-        <v>0</v>
-      </c>
-      <c r="IM19">
-        <v>0</v>
-      </c>
-      <c r="IN19">
-        <v>0</v>
-      </c>
-      <c r="IO19">
-        <v>0</v>
-      </c>
-      <c r="IP19">
-        <v>0</v>
-      </c>
-      <c r="IQ19">
-        <v>0</v>
-      </c>
-      <c r="IR19">
-        <v>0</v>
-      </c>
-      <c r="IS19">
-        <v>0</v>
-      </c>
-      <c r="IT19">
-        <v>0</v>
-      </c>
-      <c r="IU19">
-        <v>0</v>
-      </c>
-      <c r="IV19">
-        <v>0</v>
-      </c>
-      <c r="IW19">
-        <v>0</v>
-      </c>
-      <c r="IX19">
-        <v>0</v>
-      </c>
-      <c r="IY19">
-        <v>0</v>
-      </c>
-      <c r="IZ19">
-        <v>0</v>
-      </c>
-      <c r="JA19">
-        <v>1</v>
-      </c>
-      <c r="JB19">
-        <v>0</v>
-      </c>
-      <c r="JC19">
-        <v>0</v>
-      </c>
-      <c r="JD19">
-        <v>0</v>
-      </c>
-      <c r="JE19">
-        <v>0</v>
-      </c>
-      <c r="JF19">
-        <v>0</v>
-      </c>
-      <c r="JG19">
-        <v>0</v>
-      </c>
-      <c r="JH19">
-        <v>0</v>
-      </c>
-      <c r="JI19">
-        <v>0</v>
-      </c>
-      <c r="JJ19">
-        <v>0</v>
-      </c>
-      <c r="JK19">
-        <v>0</v>
-      </c>
-      <c r="JL19">
-        <v>1</v>
-      </c>
-      <c r="JM19">
-        <v>0</v>
-      </c>
-      <c r="JN19">
-        <v>0</v>
-      </c>
-      <c r="JO19">
-        <v>0</v>
-      </c>
-      <c r="JP19">
-        <v>1</v>
-      </c>
-      <c r="JQ19">
-        <v>0</v>
-      </c>
-      <c r="JR19">
-        <v>0</v>
-      </c>
-      <c r="JS19">
-        <v>0</v>
-      </c>
-      <c r="JT19">
-        <v>0</v>
-      </c>
-      <c r="JU19">
-        <v>0</v>
-      </c>
-      <c r="JV19">
-        <v>0</v>
-      </c>
-      <c r="JW19">
-        <v>0</v>
-      </c>
-      <c r="JX19">
-        <v>0</v>
-      </c>
-      <c r="JY19">
-        <v>0</v>
-      </c>
-      <c r="JZ19">
-        <v>0</v>
-      </c>
-      <c r="KA19">
-        <v>0</v>
-      </c>
-      <c r="KB19">
-        <v>0</v>
-      </c>
-      <c r="KC19">
-        <v>0</v>
-      </c>
-      <c r="KD19">
-        <v>0</v>
-      </c>
-      <c r="KE19">
-        <v>0</v>
-      </c>
-      <c r="KF19">
-        <v>0</v>
-      </c>
-      <c r="KG19">
-        <v>1</v>
-      </c>
-      <c r="KH19">
-        <v>0</v>
-      </c>
-      <c r="KI19">
-        <v>0</v>
-      </c>
-      <c r="KJ19">
-        <v>0</v>
-      </c>
-      <c r="KK19">
-        <v>0</v>
-      </c>
-      <c r="KL19">
-        <v>0</v>
-      </c>
-      <c r="KM19">
-        <v>0</v>
-      </c>
-      <c r="KN19">
-        <v>0</v>
-      </c>
-      <c r="KO19">
-        <v>0</v>
-      </c>
-      <c r="KP19">
-        <v>0</v>
-      </c>
-      <c r="KQ19">
-        <v>0</v>
-      </c>
-      <c r="KR19">
-        <v>0</v>
-      </c>
-      <c r="KS19">
-        <v>0</v>
-      </c>
-      <c r="KT19">
-        <v>0</v>
-      </c>
-      <c r="KU19">
-        <v>0</v>
-      </c>
-      <c r="KV19">
-        <v>0</v>
-      </c>
-      <c r="KW19">
-        <v>0</v>
-      </c>
-      <c r="KX19">
-        <v>1</v>
-      </c>
-      <c r="KY19">
-        <v>0</v>
-      </c>
-      <c r="KZ19">
-        <v>0</v>
-      </c>
-      <c r="LA19">
-        <v>0</v>
-      </c>
-      <c r="LB19">
-        <v>0</v>
-      </c>
-      <c r="LC19">
-        <v>0</v>
-      </c>
-      <c r="LD19">
-        <v>1</v>
-      </c>
-      <c r="LE19">
-        <v>0</v>
-      </c>
-      <c r="LF19">
-        <v>1</v>
-      </c>
-      <c r="LG19">
-        <v>0</v>
-      </c>
-      <c r="LH19">
-        <v>0</v>
-      </c>
-      <c r="LI19">
-        <v>0</v>
-      </c>
-      <c r="LJ19">
-        <v>0</v>
-      </c>
-      <c r="LK19">
-        <v>0</v>
-      </c>
-      <c r="LL19">
-        <v>0</v>
-      </c>
-      <c r="LM19">
-        <v>0</v>
-      </c>
-      <c r="LN19">
-        <v>0</v>
-      </c>
-      <c r="LO19">
-        <v>0</v>
-      </c>
-      <c r="LP19">
-        <v>0</v>
-      </c>
-      <c r="LQ19">
-        <v>0</v>
-      </c>
-      <c r="LR19">
-        <v>0</v>
-      </c>
-      <c r="LS19">
-        <v>0</v>
-      </c>
-      <c r="LT19">
-        <v>0</v>
-      </c>
-      <c r="LU19">
-        <v>0</v>
-      </c>
-      <c r="LV19">
-        <v>1</v>
-      </c>
-      <c r="LW19">
-        <v>0</v>
-      </c>
-      <c r="LX19">
-        <v>0</v>
-      </c>
-      <c r="LY19">
-        <v>0</v>
-      </c>
-      <c r="LZ19">
-        <v>0</v>
-      </c>
-      <c r="MA19">
-        <v>0</v>
-      </c>
-      <c r="MB19">
-        <v>0</v>
-      </c>
-      <c r="MC19">
-        <v>1</v>
-      </c>
-      <c r="MD19">
-        <v>0</v>
-      </c>
-      <c r="ME19">
-        <v>0</v>
-      </c>
-      <c r="MF19">
-        <v>1</v>
-      </c>
-      <c r="MG19">
-        <v>0</v>
-      </c>
-      <c r="MH19">
-        <v>0</v>
-      </c>
-      <c r="MI19">
-        <v>0</v>
-      </c>
-      <c r="MJ19">
-        <v>0</v>
-      </c>
-      <c r="MK19">
-        <v>0</v>
-      </c>
-      <c r="ML19">
-        <v>0</v>
-      </c>
-      <c r="MM19">
-        <v>0</v>
-      </c>
-      <c r="MN19">
-        <v>0</v>
-      </c>
-      <c r="MO19">
-        <v>0</v>
-      </c>
-      <c r="MP19">
-        <v>0</v>
-      </c>
-      <c r="MQ19">
-        <v>0</v>
-      </c>
-      <c r="MR19">
-        <v>0</v>
-      </c>
-      <c r="MS19">
-        <v>0</v>
-      </c>
-      <c r="MT19">
-        <v>1</v>
-      </c>
-      <c r="MU19">
-        <v>0</v>
-      </c>
-      <c r="MV19">
-        <v>0</v>
-      </c>
-      <c r="MW19">
-        <v>0</v>
-      </c>
-      <c r="MX19">
-        <v>0</v>
-      </c>
-      <c r="MY19">
-        <v>0</v>
-      </c>
-      <c r="MZ19">
-        <v>0</v>
-      </c>
-      <c r="NA19">
-        <v>0</v>
-      </c>
-      <c r="NB19">
-        <v>0</v>
-      </c>
-      <c r="NC19">
-        <v>0</v>
-      </c>
-      <c r="ND19">
-        <v>0</v>
-      </c>
-      <c r="NE19">
-        <v>0</v>
-      </c>
-      <c r="NF19">
-        <v>1</v>
-      </c>
-      <c r="NG19">
-        <v>0</v>
-      </c>
-      <c r="NH19">
-        <v>1</v>
-      </c>
-      <c r="NI19">
-        <v>0</v>
-      </c>
-      <c r="NJ19">
-        <v>0</v>
-      </c>
-      <c r="NK19">
-        <v>0</v>
-      </c>
-      <c r="NL19">
-        <v>0</v>
-      </c>
-      <c r="NM19">
-        <v>0</v>
-      </c>
-      <c r="NN19">
-        <v>0</v>
-      </c>
-      <c r="NO19">
-        <v>0</v>
-      </c>
-      <c r="NP19">
-        <v>0</v>
-      </c>
-      <c r="NQ19">
-        <v>0</v>
-      </c>
-      <c r="NR19">
-        <v>0</v>
-      </c>
-      <c r="NS19">
-        <v>0</v>
-      </c>
-      <c r="NT19">
-        <v>0</v>
-      </c>
-      <c r="NU19">
-        <v>0</v>
-      </c>
-      <c r="NV19">
-        <v>0</v>
-      </c>
-      <c r="NW19">
-        <v>0</v>
-      </c>
-      <c r="NX19">
-        <v>0</v>
-      </c>
-      <c r="NY19">
-        <v>0</v>
-      </c>
-      <c r="NZ19">
-        <v>0</v>
-      </c>
-      <c r="OA19">
-        <v>0</v>
-      </c>
-      <c r="OB19">
-        <v>0</v>
-      </c>
-      <c r="OC19">
-        <v>0</v>
-      </c>
-      <c r="OD19">
-        <v>0</v>
-      </c>
-      <c r="OE19">
-        <v>0</v>
-      </c>
-      <c r="OF19">
-        <v>0</v>
-      </c>
-      <c r="OG19">
-        <v>1</v>
-      </c>
-      <c r="OH19">
-        <v>0</v>
-      </c>
-      <c r="OI19">
-        <v>0</v>
-      </c>
-      <c r="OJ19">
-        <v>0</v>
-      </c>
-      <c r="OK19">
-        <v>0</v>
-      </c>
-      <c r="OL19">
-        <v>1</v>
-      </c>
-      <c r="OM19">
-        <v>1</v>
-      </c>
-      <c r="ON19">
-        <v>0</v>
-      </c>
-      <c r="OO19">
-        <v>0</v>
-      </c>
-      <c r="OP19">
-        <v>0</v>
-      </c>
-      <c r="OQ19">
-        <v>0</v>
-      </c>
-      <c r="OR19">
-        <v>0</v>
-      </c>
-      <c r="OS19">
-        <v>0</v>
-      </c>
-      <c r="OT19">
-        <v>0</v>
-      </c>
-      <c r="OU19">
-        <v>0</v>
-      </c>
-      <c r="OV19">
-        <v>0</v>
-      </c>
-      <c r="OW19">
-        <v>0</v>
-      </c>
-      <c r="OX19">
-        <v>0</v>
-      </c>
-      <c r="OY19">
-        <v>0</v>
-      </c>
-      <c r="OZ19">
-        <v>0</v>
-      </c>
-      <c r="PA19">
-        <v>0</v>
-      </c>
-      <c r="PB19">
-        <v>0</v>
-      </c>
-      <c r="PC19">
-        <v>0</v>
-      </c>
-      <c r="PD19">
-        <v>0</v>
-      </c>
-      <c r="PE19">
-        <v>0</v>
-      </c>
-      <c r="PF19">
-        <v>0</v>
-      </c>
-      <c r="PG19">
-        <v>0</v>
-      </c>
-      <c r="PH19">
-        <v>0</v>
-      </c>
-      <c r="PI19">
-        <v>0</v>
-      </c>
-      <c r="PJ19">
-        <v>1</v>
-      </c>
-      <c r="PK19">
-        <v>0</v>
-      </c>
-      <c r="PL19">
-        <v>0</v>
-      </c>
-      <c r="PM19">
-        <v>0</v>
-      </c>
-      <c r="PN19">
-        <v>0</v>
-      </c>
-      <c r="PO19">
-        <v>0</v>
-      </c>
-      <c r="PP19">
-        <v>0</v>
-      </c>
-      <c r="PQ19">
-        <v>0</v>
-      </c>
-      <c r="PR19">
-        <v>0</v>
-      </c>
-      <c r="PS19">
-        <v>0</v>
-      </c>
-      <c r="PT19">
-        <v>0</v>
-      </c>
-      <c r="PU19">
-        <v>0</v>
-      </c>
-      <c r="PV19">
-        <v>0</v>
-      </c>
-      <c r="PW19">
-        <v>0</v>
-      </c>
-      <c r="PX19">
-        <v>0</v>
-      </c>
-      <c r="PY19">
-        <v>0</v>
-      </c>
-      <c r="PZ19">
-        <v>0</v>
-      </c>
-      <c r="QA19">
-        <v>0</v>
-      </c>
-      <c r="QB19">
-        <v>0</v>
-      </c>
-      <c r="QC19">
-        <v>0</v>
-      </c>
-      <c r="QD19">
-        <v>1</v>
-      </c>
-      <c r="QE19">
-        <v>0</v>
-      </c>
-      <c r="QF19">
-        <v>0</v>
-      </c>
-      <c r="QG19">
-        <v>0</v>
-      </c>
-      <c r="QH19">
-        <v>0</v>
-      </c>
-      <c r="QI19">
-        <v>0</v>
-      </c>
-      <c r="QJ19">
-        <v>0</v>
-      </c>
-      <c r="QK19">
-        <v>0</v>
-      </c>
-      <c r="QL19">
-        <v>0</v>
-      </c>
-      <c r="QM19">
-        <v>0</v>
-      </c>
-      <c r="QN19">
-        <v>0</v>
-      </c>
-      <c r="QO19">
-        <v>0</v>
-      </c>
-      <c r="QP19">
-        <v>0</v>
-      </c>
-      <c r="QQ19">
-        <v>0</v>
-      </c>
-      <c r="QR19">
-        <v>0</v>
-      </c>
-      <c r="QS19">
-        <v>0</v>
-      </c>
-      <c r="QT19">
-        <v>0</v>
-      </c>
-      <c r="QU19">
-        <v>0</v>
-      </c>
-      <c r="QV19">
-        <v>0</v>
-      </c>
-      <c r="QW19">
-        <v>0</v>
-      </c>
-      <c r="QX19">
-        <v>0</v>
-      </c>
-      <c r="QY19">
-        <v>0</v>
-      </c>
-      <c r="QZ19">
-        <v>0</v>
-      </c>
-      <c r="RA19">
-        <v>0</v>
-      </c>
-      <c r="RB19">
-        <v>0</v>
-      </c>
-      <c r="RC19">
-        <v>0</v>
-      </c>
-      <c r="RD19">
-        <v>0</v>
-      </c>
-      <c r="RE19">
-        <v>0</v>
-      </c>
-      <c r="RF19">
-        <v>0</v>
-      </c>
-      <c r="RG19">
-        <v>0</v>
-      </c>
-      <c r="RH19">
-        <v>0</v>
-      </c>
-      <c r="RI19">
-        <v>0</v>
-      </c>
-      <c r="RJ19">
-        <v>0</v>
-      </c>
-      <c r="RK19">
-        <v>0</v>
-      </c>
-      <c r="RL19">
-        <v>0</v>
-      </c>
-      <c r="RM19">
-        <v>0</v>
-      </c>
-      <c r="RN19">
-        <v>0</v>
-      </c>
-      <c r="RO19">
-        <v>0</v>
-      </c>
-      <c r="RP19">
-        <v>0</v>
-      </c>
-      <c r="RQ19">
-        <v>0</v>
-      </c>
-      <c r="RR19">
-        <v>0</v>
-      </c>
-      <c r="RS19">
-        <v>0</v>
-      </c>
-      <c r="RT19">
-        <v>0</v>
-      </c>
-      <c r="RU19">
-        <v>0</v>
-      </c>
-      <c r="RV19">
-        <v>0</v>
-      </c>
-      <c r="RW19">
-        <v>0</v>
-      </c>
-      <c r="RX19">
-        <v>0</v>
-      </c>
-      <c r="RY19">
-        <v>0</v>
-      </c>
-      <c r="RZ19">
-        <v>0</v>
-      </c>
-      <c r="SA19">
-        <v>0</v>
-      </c>
-      <c r="SB19">
-        <v>0</v>
-      </c>
-      <c r="SC19">
-        <v>0</v>
-      </c>
-      <c r="SD19">
-        <v>1</v>
-      </c>
-      <c r="SE19">
-        <v>0</v>
-      </c>
-      <c r="SF19">
-        <v>0</v>
-      </c>
-      <c r="SG19">
-        <v>0</v>
-      </c>
-      <c r="SH19">
-        <v>0</v>
-      </c>
-      <c r="SI19">
-        <v>0</v>
-      </c>
-      <c r="SJ19">
-        <v>0</v>
-      </c>
-      <c r="SK19">
-        <v>0</v>
-      </c>
-      <c r="SL19">
-        <v>0</v>
-      </c>
-      <c r="SM19">
-        <v>0</v>
-      </c>
-      <c r="SN19">
-        <v>0</v>
-      </c>
-      <c r="SO19">
-        <v>0</v>
-      </c>
-      <c r="SP19">
-        <v>0</v>
-      </c>
-      <c r="SQ19">
-        <v>0</v>
-      </c>
-      <c r="SR19">
-        <v>0</v>
-      </c>
-      <c r="SS19">
-        <v>0</v>
-      </c>
-      <c r="ST19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:514">
-      <c r="A20" t="s">
-        <v>531</v>
-      </c>
-      <c r="B20">
-        <f>SUM(B2:B19)</f>
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <f t="shared" ref="C20:BN20" si="0">SUM(C2:C19)</f>
-        <v>2</v>
-      </c>
-      <c r="D20">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E20">
+      <c r="E19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F20">
+      <c r="F19">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G20">
+      <c r="G19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H20">
+      <c r="H19">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I20">
+      <c r="I19">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J20">
+      <c r="J19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K20">
+      <c r="K19">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L20">
+      <c r="L19">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M20">
+      <c r="M19">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N20">
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T19">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="O20">
+      <c r="U19">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="V19">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q20">
+        <v>4</v>
+      </c>
+      <c r="W19">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="X19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="S20">
+      <c r="Y19">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T20">
+        <v>3</v>
+      </c>
+      <c r="Z19">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="U20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V20">
+      <c r="AA19">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="W20">
+      <c r="AB19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X20">
+        <v>2</v>
+      </c>
+      <c r="AC19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y20">
+      <c r="AD19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AF19">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="Z20">
+      <c r="AG19">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AA20">
+      <c r="AH19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AM19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AN19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AO19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AP19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AQ19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AR19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AS19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AT19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AV19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AW19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="BA19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BB19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BC19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BD19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="BE19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BG19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BH19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="BI19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BJ19">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AB20">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AC20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AD20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AF20">
+      <c r="BK19">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AG20">
+      <c r="BL19">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AH20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AJ20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AK20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="BM19">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AM20">
+      <c r="BN19">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BO19">
+        <f t="shared" ref="BO19:DZ19" si="1">SUM(BO2:BO18)</f>
         <v>2</v>
       </c>
-      <c r="AN20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AO20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AP20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AQ20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AR20">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AS20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AT20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU20">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AV20">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AW20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AX20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AY20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AZ20">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="BA20">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="BB20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="BC20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="BD20">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="BE20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BF20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="BG20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="BH20">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="BI20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BJ20">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="BK20">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="BL20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BM20">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="BN20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="BO20">
-        <f t="shared" ref="BO20:DZ20" si="1">SUM(BO2:BO19)</f>
-        <v>2</v>
-      </c>
-      <c r="BP20">
+      <c r="BP19">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="BQ20">
+      <c r="BQ19">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="BR20">
+      <c r="BR19">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="BS20">
+      <c r="BS19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BT20">
+      <c r="BT19">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="BU20">
+      <c r="BU19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BV20">
+      <c r="BV19">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="BW20">
+      <c r="BW19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BX20">
+      <c r="BX19">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="BY20">
+      <c r="BY19">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="BZ20">
+      <c r="BZ19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="CA20">
+      <c r="CA19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="CB20">
+      <c r="CB19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="CC20">
+      <c r="CC19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="CD20">
+      <c r="CD19">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="CE20">
+      <c r="CE19">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="CF20">
+      <c r="CF19">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="CG20">
+      <c r="CG19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CH20">
+      <c r="CH19">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="CI20">
+      <c r="CI19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="CJ19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="CK19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="CL19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="CM19">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="CJ20">
+      <c r="CN19">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="CK20">
+      <c r="CO19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="CP19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CQ19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="CR19">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="CL20">
+      <c r="CS19">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="CM20">
+        <v>2</v>
+      </c>
+      <c r="CT19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="CU19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CV19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="CW19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CX19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="CY19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="CZ19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="DA19">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="CN20">
+      <c r="DB19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="DC19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DD19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="DE19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DF19">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="DG19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DH19">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="CO20">
+      <c r="DI19">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="CP20">
+        <v>0</v>
+      </c>
+      <c r="DJ19">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CQ20">
+        <v>2</v>
+      </c>
+      <c r="DK19">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="CR20">
+        <v>2</v>
+      </c>
+      <c r="DL19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="DM19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="DN19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="DO19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="DP19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="DQ19">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="DR19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="DS19">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="DT19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="DU19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="DV19">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="DW19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DX19">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="CS20">
+      <c r="DY19">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="CT20">
+        <v>1</v>
+      </c>
+      <c r="DZ19">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="CU20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CV20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="CW20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CX20">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="CY20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="CZ20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="DA20">
-        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="EA19">
+        <f t="shared" ref="EA19:GL19" si="2">SUM(EA2:EA18)</f>
         <v>3</v>
       </c>
-      <c r="DB20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="DC20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="DD20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="DE20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="DF20">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="DG20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="DH20">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="DI20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="DJ20">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="DK20">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="DL20">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="DM20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="DN20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="DO20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="DP20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="DQ20">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="DR20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="DS20">
-        <f t="shared" si="1"/>
+      <c r="EB19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="EC19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="ED19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="EE19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="EF19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EG19">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="DT20">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="DU20">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="DV20">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="DW20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="DX20">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="DY20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="DZ20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="EA20">
-        <f t="shared" ref="EA20:GL20" si="2">SUM(EA2:EA19)</f>
-        <v>3</v>
-      </c>
-      <c r="EB20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="EC20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="ED20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="EE20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="EF20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="EG20">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="EH20">
+      <c r="EH19">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="EI20">
+      <c r="EI19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="EJ20">
+      <c r="EJ19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="EK19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="EL19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="EM19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="EN19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="EO19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="EP19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="EQ19">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="EK20">
+      <c r="ER19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="EL20">
+      <c r="ES19">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="EM20">
+      <c r="ET19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="EN20">
+      <c r="EU19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="EO20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="EP20">
+      <c r="EV19">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="EQ20">
+      <c r="EW19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="EX19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="EY19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="EZ19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FA19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FB19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="FC19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="FD19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="FE19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="FF19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="FG19">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="FH19">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="ER20">
+      <c r="FI19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="ES20">
+      <c r="FJ19">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="ET20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="EU20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="EV20">
+      <c r="FK19">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="EW20">
+      <c r="FL19">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="EX20">
+      <c r="FM19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FN19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="FO19">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="EY20">
+      <c r="FP19">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="FQ19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="FR19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="FS19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FT19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FU19">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="EZ20">
+      <c r="FV19">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="FA20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="FB20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="FC20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="FD20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="FE20">
+        <v>1</v>
+      </c>
+      <c r="FW19">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="FF20">
+      <c r="FX19">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="FG20">
+      <c r="FY19">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="FH20">
+        <v>1</v>
+      </c>
+      <c r="FZ19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="GA19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="GB19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="GC19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="GD19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GE19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GF19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="GG19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="GH19">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="FI20">
+      <c r="GI19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="FJ20">
+      <c r="GJ19">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="FK20">
+      <c r="GK19">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="FL20">
+      <c r="GL19">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="FM20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="FN20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="FO20">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="FP20">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="FQ20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="FR20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="FS20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="FT20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="FU20">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="FV20">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="FW20">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="FX20">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="FY20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="FZ20">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="GA20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="GB20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="GC20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="GD20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="GE20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="GF20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="GG20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="GH20">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="GI20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="GJ20">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="GK20">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="GL20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="GM20">
-        <f t="shared" ref="GM20:IX20" si="3">SUM(GM2:GM19)</f>
+        <v>1</v>
+      </c>
+      <c r="GM19">
+        <f t="shared" ref="GM19:IX19" si="3">SUM(GM2:GM18)</f>
         <v>4</v>
       </c>
-      <c r="GN20">
+      <c r="GN19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="GO20">
+      <c r="GO19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="GP20">
+      <c r="GP19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="GQ20">
+      <c r="GQ19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="GR20">
+      <c r="GR19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="GS20">
+      <c r="GS19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="GT20">
+      <c r="GT19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="GU20">
+      <c r="GU19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="GV20">
+      <c r="GV19">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="GW20">
+      <c r="GW19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="GX20">
+      <c r="GX19">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="GY20">
+      <c r="GY19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="GZ20">
+      <c r="GZ19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="HA20">
+      <c r="HA19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="HB20">
+      <c r="HB19">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="HC20">
+      <c r="HC19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="HD20">
+      <c r="HD19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="HE20">
+      <c r="HE19">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="HF20">
+      <c r="HF19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="HG20">
+      <c r="HG19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="HH20">
+      <c r="HH19">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="HI20">
+      <c r="HI19">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="HJ20">
+      <c r="HJ19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="HK20">
+      <c r="HK19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="HL20">
+      <c r="HL19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="HM20">
+      <c r="HM19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="HN20">
+      <c r="HN19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="HO20">
+      <c r="HO19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="HP20">
+      <c r="HP19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="HQ20">
+      <c r="HQ19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="HR20">
+      <c r="HR19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="HS20">
+      <c r="HS19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="HT20">
+      <c r="HT19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="HU20">
+      <c r="HU19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="HV20">
+      <c r="HV19">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="HW20">
+      <c r="HW19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="HX20">
+      <c r="HX19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="HY20">
+      <c r="HY19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="HZ20">
+      <c r="HZ19">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="IA20">
+        <v>3</v>
+      </c>
+      <c r="IA19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="IB20">
+      <c r="IB19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="IC20">
+      <c r="IC19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="ID20">
+      <c r="ID19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="IE20">
+      <c r="IE19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="IF20">
+      <c r="IF19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="IG20">
+      <c r="IG19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="IH20">
+      <c r="IH19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="II20">
+      <c r="II19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="IJ20">
+      <c r="IJ19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="IK20">
+      <c r="IK19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="IL20">
+      <c r="IL19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="IM20">
+      <c r="IM19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="IN20">
+      <c r="IN19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="IO20">
+      <c r="IO19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="IP20">
+      <c r="IP19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="IQ20">
+      <c r="IQ19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="IR20">
+      <c r="IR19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="IS20">
+      <c r="IS19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="IT20">
+      <c r="IT19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="IU20">
+      <c r="IU19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="IV20">
+      <c r="IV19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="IW20">
+      <c r="IW19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="IX20">
+      <c r="IX19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="IY20">
-        <f t="shared" ref="IY20:LJ20" si="4">SUM(IY2:IY19)</f>
+      <c r="IY19">
+        <f t="shared" ref="IY19:LJ19" si="4">SUM(IY2:IY18)</f>
         <v>2</v>
       </c>
-      <c r="IZ20">
+      <c r="IZ19">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="JA20">
+      <c r="JA19">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="JB20">
+      <c r="JB19">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="JC20">
+      <c r="JC19">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="JD20">
+      <c r="JD19">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="JE20">
+      <c r="JE19">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="JF20">
+      <c r="JF19">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="JG20">
+      <c r="JG19">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="JH20">
+      <c r="JH19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="JI20">
+      <c r="JI19">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="JJ20">
+      <c r="JJ19">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="JK20">
+      <c r="JK19">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="JL20">
+      <c r="JL19">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="JM20">
+      <c r="JM19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="JN20">
+      <c r="JN19">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="JO20">
+      <c r="JO19">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="JP20">
+      <c r="JP19">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="JQ20">
+      <c r="JQ19">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="JR20">
+      <c r="JR19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="JS20">
+      <c r="JS19">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="JT19">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="JU19">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="JV19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="JW19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="JX19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="JY19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="JZ19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KA19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KB19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="KC19">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="KD19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KE19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KF19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KG19">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="JT20">
+      <c r="KH19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="KI19">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="JU20">
+      <c r="KJ19">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="KK19">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="JV20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="JW20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="JX20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="JY20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="JZ20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="KA20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="KB20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="KC20">
+      <c r="KL19">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="KD20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="KE20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="KF20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="KG20">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="KH20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="KI20">
+      <c r="KM19">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="KJ20">
+      <c r="KN19">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="KK20">
+        <v>1</v>
+      </c>
+      <c r="KO19">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="KL20">
+        <v>1</v>
+      </c>
+      <c r="KP19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="KQ19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KR19">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="KM20">
+      <c r="KS19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KT19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="KU19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="KV19">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="KN20">
+      <c r="KW19">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="KO20">
+      <c r="KX19">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="KP20">
+        <v>5</v>
+      </c>
+      <c r="KY19">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="KQ20">
+      <c r="KZ19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="KR20">
+        <v>1</v>
+      </c>
+      <c r="LA19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="LB19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="LC19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="LD19">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="LE19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="LF19">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="KS20">
+      <c r="LG19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="KT20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="KU20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="KV20">
+        <v>1</v>
+      </c>
+      <c r="LH19">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="KW20">
+      <c r="LI19">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="KX20">
+      <c r="LJ19">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="KY20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="KZ20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="LA20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="LB20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="LC20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="LD20">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="LE20">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="LF20">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="LG20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="LH20">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="LI20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="LJ20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="LK20">
-        <f t="shared" ref="LK20:NV20" si="5">SUM(LK2:LK19)</f>
-        <v>2</v>
-      </c>
-      <c r="LL20">
+        <v>0</v>
+      </c>
+      <c r="LK19">
+        <f t="shared" ref="LK19:NV19" si="5">SUM(LK2:LK18)</f>
+        <v>1</v>
+      </c>
+      <c r="LL19">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="LM20">
+      <c r="LM19">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="LN20">
+      <c r="LN19">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="LO20">
+      <c r="LO19">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="LP20">
+      <c r="LP19">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="LQ20">
+      <c r="LQ19">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="LR20">
+      <c r="LR19">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="LS20">
+      <c r="LS19">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="LT20">
+      <c r="LT19">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="LU20">
+      <c r="LU19">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="LV20">
+      <c r="LV19">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="LW20">
+      <c r="LW19">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="LX20">
+      <c r="LX19">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="LY20">
+      <c r="LY19">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="LZ20">
+      <c r="LZ19">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="MA20">
+      <c r="MA19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="MB20">
+      <c r="MB19">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="MC20">
+      <c r="MC19">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="MD20">
+      <c r="MD19">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="ME20">
+      <c r="ME19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="MF20">
+      <c r="MF19">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="MG20">
+      <c r="MG19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="MH20">
+      <c r="MH19">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="MI20">
+      <c r="MI19">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="MJ20">
+      <c r="MJ19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="MK20">
+      <c r="MK19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="ML20">
+      <c r="ML19">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="MM20">
+      <c r="MM19">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="MN20">
+      <c r="MN19">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="MO20">
+      <c r="MO19">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="MP20">
+      <c r="MP19">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="MQ20">
+      <c r="MQ19">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="MR20">
+      <c r="MR19">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="MS20">
+      <c r="MS19">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="MT20">
+      <c r="MT19">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="MU20">
+      <c r="MU19">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="MV20">
+      <c r="MV19">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="MW20">
+      <c r="MW19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="MX20">
+      <c r="MX19">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="MY20">
+      <c r="MY19">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="MZ20">
+      <c r="MZ19">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="NA20">
+      <c r="NA19">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="NB20">
+      <c r="NB19">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="NC20">
+      <c r="NC19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="ND20">
+      <c r="ND19">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="NE20">
+      <c r="NE19">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="NF20">
+      <c r="NF19">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="NG20">
+      <c r="NG19">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="NH20">
+      <c r="NH19">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="NI20">
+      <c r="NI19">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="NJ20">
+      <c r="NJ19">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="NK20">
+      <c r="NK19">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="NL20">
+      <c r="NL19">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="NM20">
+      <c r="NM19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="NN20">
+      <c r="NN19">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="NO20">
+      <c r="NO19">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="NP20">
+      <c r="NP19">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="NQ20">
+      <c r="NQ19">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="NR20">
+      <c r="NR19">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="NS20">
+      <c r="NS19">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="NT20">
+      <c r="NT19">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="NU20">
+      <c r="NU19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="NV20">
+      <c r="NV19">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="NW20">
-        <f t="shared" ref="NW20:QH20" si="6">SUM(NW2:NW19)</f>
+      <c r="NW19">
+        <f t="shared" ref="NW19:QH19" si="6">SUM(NW2:NW18)</f>
         <v>2</v>
       </c>
-      <c r="NX20">
+      <c r="NX19">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="NY20">
+      <c r="NY19">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="NZ19">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="OA19">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="OB19">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="OC19">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="OD19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="OE19">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="OF19">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="OG19">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="OH19">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="OI19">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="OJ19">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="OK19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="OL19">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="OM19">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="ON19">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="OO19">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="OP19">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="OQ19">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="NZ20">
+      <c r="OR19">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="OA20">
+      <c r="OS19">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="OB20">
+      <c r="OT19">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="OC20">
+        <v>3</v>
+      </c>
+      <c r="OU19">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="OD20">
+      <c r="OV19">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="OE20">
+      <c r="OW19">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="OF20">
+        <v>0</v>
+      </c>
+      <c r="OX19">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="OG20">
+        <v>0</v>
+      </c>
+      <c r="OY19">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="OZ19">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="PA19">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="PB19">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="PC19">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="PD19">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="OH20">
+      <c r="PE19">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="OI20">
+      <c r="PF19">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="PG19">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="PH19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="PI19">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="PJ19">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="PK19">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="PL19">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="PM19">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="PN19">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="PO19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="PP19">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="PQ19">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="PR19">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="PS19">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="PT19">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="PU19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="PV19">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="PW19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="PX19">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="PY19">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="OJ20">
+      <c r="PZ19">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="QA19">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="QB19">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="QC19">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="QD19">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="OK20">
+      <c r="QE19">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="OL20">
+        <v>1</v>
+      </c>
+      <c r="QF19">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="QG19">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="OM20">
+      <c r="QH19">
         <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="QI19">
+        <f t="shared" ref="QI19:ST19" si="7">SUM(QI2:QI18)</f>
         <v>2</v>
       </c>
-      <c r="ON20">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="OO20">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="OP20">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="OQ20">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="OR20">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="OS20">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="OT20">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="OU20">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="OV20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="OW20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="OX20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="OY20">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="OZ20">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="PA20">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="PB20">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="PC20">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="PD20">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="PE20">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="PF20">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="PG20">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="PH20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="PI20">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="PJ20">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="PK20">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="PL20">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="PM20">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="PN20">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="PO20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="PP20">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="PQ20">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="PR20">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="PS20">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="PT20">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="PU20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="PV20">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="PW20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="PX20">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="PY20">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="PZ20">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="QA20">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="QB20">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="QC20">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="QD20">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="QE20">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="QF20">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="QG20">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="QH20">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="QI20">
-        <f t="shared" ref="QI20:ST20" si="7">SUM(QI2:QI19)</f>
-        <v>2</v>
-      </c>
-      <c r="QJ20">
+      <c r="QJ19">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="QK20">
+      <c r="QK19">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="QL20">
+      <c r="QL19">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="QM20">
+      <c r="QM19">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="QN20">
+      <c r="QN19">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="QO20">
+      <c r="QO19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="QP20">
+      <c r="QP19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="QQ20">
+      <c r="QQ19">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="QR20">
+      <c r="QR19">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="QS20">
+      <c r="QS19">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="QT20">
+      <c r="QT19">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="QU20">
+      <c r="QU19">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="QV20">
+      <c r="QV19">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="QW20">
+      <c r="QW19">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="QX20">
+      <c r="QX19">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="QY20">
+      <c r="QY19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="QZ20">
+      <c r="QZ19">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="RA20">
+      <c r="RA19">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="RB20">
+      <c r="RB19">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="RC20">
+      <c r="RC19">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="RD19">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="RE19">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="RF19">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="RG19">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="RH19">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="RI19">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="RJ19">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="RK19">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="RL19">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="RM19">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="RN19">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="RO19">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="RP19">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="RQ19">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="RR19">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="RS19">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="RT19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="RU19">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="RV19">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="RW19">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="RX19">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="RY19">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="RZ19">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="SA19">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="SB19">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="SC19">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="SD19">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="RD20">
+      <c r="SE19">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="RE20">
+        <v>0</v>
+      </c>
+      <c r="SF19">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="RF20">
+        <v>3</v>
+      </c>
+      <c r="SG19">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="RG20">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="RH20">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="RI20">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="RJ20">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="RK20">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="RL20">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="RM20">
+        <v>0</v>
+      </c>
+      <c r="SH19">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="RN20">
+      <c r="SI19">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="SJ19">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="SK19">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="SL19">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="SM19">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="SN19">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="SO19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="SP19">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="SQ19">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="RO20">
+      <c r="SR19">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="RP20">
+        <v>0</v>
+      </c>
+      <c r="SS19">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="RQ20">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="RR20">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="RS20">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="RT20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="RU20">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="RV20">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="RW20">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="RX20">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="RY20">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="RZ20">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="SA20">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="SB20">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="SC20">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="SD20">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="SE20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="SF20">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="SG20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="SH20">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="SI20">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="SJ20">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="SK20">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="SL20">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="SM20">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="SN20">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="SO20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="SP20">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="SQ20">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="SR20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="SS20">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="ST20">
+        <v>1</v>
+      </c>
+      <c r="ST19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
